--- a/data/trans_camb/P25_9-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_9-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,47</t>
+          <t>-4,53; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,11</t>
+          <t>-4,79; 1,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,07</t>
+          <t>-3,51; 3,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,96</t>
+          <t>-0,72; 5,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,02</t>
+          <t>-1,2; 4,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,49</t>
+          <t>-3,06; 4,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,13</t>
+          <t>-5,64; 2,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 0,94</t>
+          <t>1,02; 10,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,15</t>
+          <t>-7,0; 2,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 5,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 2,86</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 1,17</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 5,85</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 2,87</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 4,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>-16,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-17,96%</t>
+          <t>-20,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>40,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>-9,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,68%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>-8,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-11,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 55,97</t>
+          <t>-53,41; 45,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,16; 49,95</t>
+          <t>-55,96; 35,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 84,39</t>
+          <t>-41,1; 64,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 29,14</t>
+          <t>-9,98; 109,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 11,63</t>
+          <t>-14,22; 78,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 37,9</t>
+          <t>-14,61; 29,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 27,79</t>
+          <t>-26,22; 13,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 8,33</t>
+          <t>4,44; 61,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 35,2</t>
+          <t>-25,57; 9,65</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-11,91; 29,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-18,3; 24,49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-28,91; 10,04</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 49,96</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-17,58; 20,5</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 33,38</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,78</t>
+          <t>-1,71; 3,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,89</t>
+          <t>-1,5; 3,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 6,67</t>
+          <t>0,51; 6,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 3,09</t>
+          <t>-3,46; 4,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,46</t>
+          <t>-3,55; 6,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 11,45</t>
+          <t>-7,34; 2,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,64</t>
+          <t>-5,1; 5,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,77</t>
+          <t>0,07; 10,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 6,92</t>
+          <t>-6,46; 7,4</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 10,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 1,87</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 3,27</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 7,1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 4,56</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 6,86</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>80,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>37,69%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12,57%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 126,83</t>
+          <t>-36,27; 130,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 143,32</t>
+          <t>-27,71; 112,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 204,29</t>
+          <t>6,14; 218,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 21,44</t>
+          <t>-40,38; 84,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 34,93</t>
+          <t>-41,61; 144,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 73,36</t>
+          <t>-34,18; 18,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 27,63</t>
+          <t>-24,98; 34,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 41,34</t>
+          <t>-0,72; 68,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 71,82</t>
+          <t>-25,42; 36,14</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-24,71; 61,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-28,87; 18,61</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-22,98; 33,25</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 73,02</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-23,21; 32,38</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-18,61; 61,22</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,51</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 6,76</t>
+          <t>-4,96; 7,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 2,41</t>
+          <t>-8,36; 3,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-4,7; 9,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,79; 10,38</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 7,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-7,02; 11,57</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,31; 8,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 16,98</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,63; 6,51</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 3,01</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 7,75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 4,37</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 10,16</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-39,9%</t>
+          <t>-30,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>32,52%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>13,61%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,2%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-17,14%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>30,1%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 227,12</t>
+          <t>-56,99; 299,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,91; 119,56</t>
+          <t>-82,04; 159,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-53,88; 311,03</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-35,14; 70,31</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 49,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-28,13; 80,79</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-37,9; 60,77</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 119,71</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-33,75; 67,57</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-49,54; 30,53</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-23,24; 82,52</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-43,19; 49,54</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; 110,36</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,19</t>
+          <t>-2,07; 2,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,47</t>
+          <t>-2,47; 1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,03</t>
+          <t>-0,74; 3,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,97</t>
+          <t>-0,55; 4,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,13</t>
+          <t>-1,03; 4,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,35</t>
+          <t>-3,29; 2,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,05</t>
+          <t>-3,65; 2,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,18</t>
+          <t>1,88; 8,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,32</t>
+          <t>-4,8; 2,4</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 5,75</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 1,77</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 1,27</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 5,57</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 2,29</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 4,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,84%</t>
+          <t>-8,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>-5,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>-5,82%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-5,66%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>28,66%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 49,24</t>
+          <t>-31,32; 48,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 32,47</t>
+          <t>-37,99; 28,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 91,45</t>
+          <t>-12,2; 77,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 17,91</t>
+          <t>-6,73; 77,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 12,77</t>
+          <t>-12,19; 67,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 38,16</t>
+          <t>-15,95; 16,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 18,47</t>
+          <t>-18,26; 12,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 9,73</t>
+          <t>8,92; 49,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 38,54</t>
+          <t>-18,76; 10,8</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 30,11</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 15,93</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-18,27; 12,1</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 48,57</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-13,93; 15,5</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 33,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
